--- a/Excel/072_Gráfico+de+Colunas+Empilhadas.xlsx
+++ b/Excel/072_Gráfico+de+Colunas+Empilhadas.xlsx
@@ -8,27 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4925E6CA-5E5F-4145-84A4-236F864E6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB60570D-9E9E-4A03-AAF3-C4740CA8EF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{446ACBA0-5887-44DF-B63F-26EB06614D0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="2" xr2:uid="{446ACBA0-5887-44DF-B63F-26EB06614D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela" sheetId="1" r:id="rId1"/>
     <sheet name="Professor" sheetId="3" r:id="rId2"/>
     <sheet name="Aluno" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -574,7 +566,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,6 +708,268 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Vermelho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$B$8:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9BBF-44BC-A54A-13A40F97BF30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amarelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9BBF-44BC-A54A-13A40F97BF30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azul</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -802,268 +1056,6 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Tabela!$B$8:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9BBF-44BC-A54A-13A40F97BF30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabela!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Amarelo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="picture"/>
-            <c:spPr>
-              <a:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </a:blipFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabela!$C$8:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9BBF-44BC-A54A-13A40F97BF30}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabela!$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azul</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="picture"/>
-            <c:spPr>
-              <a:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </a:blipFill>
-              <a:ln w="25400">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
               <c:f>Tabela!$D$8:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
@@ -1087,7 +1079,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6000</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +1116,7 @@
             <c:symbol val="picture"/>
             <c:spPr>
               <a:blipFill>
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
                 <a:stretch>
                   <a:fillRect/>
                 </a:stretch>
@@ -1388,549 +1380,2270 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vermelho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabela!$A$8:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicole</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rosiane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$B$8:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2067-4E22-B98D-582C122144DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amarelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabela!$A$8:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicole</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rosiane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2067-4E22-B98D-582C122144DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabela!$A$8:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicole</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rosiane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$D$8:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2067-4E22-B98D-582C122144DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabela!$A$8:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicole</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rosiane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$E$8:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2067-4E22-B98D-582C122144DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="754101496"/>
+        <c:axId val="754098616"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vermelho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$B$8:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2067-4E22-B98D-582C122144DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amarelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2067-4E22-B98D-582C122144DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2067-4E22-B98D-582C122144DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$E$8:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2067-4E22-B98D-582C122144DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="754101496"/>
+        <c:axId val="754098616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="754101496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754098616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="754098616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754101496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vermelho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabela!$A$8:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicole</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rosiane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$B$8:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98B7-4E49-8537-187BDFBAD885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amarelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabela!$A$8:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicole</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rosiane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98B7-4E49-8537-187BDFBAD885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabela!$A$8:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicole</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rosiane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$D$8:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-98B7-4E49-8537-187BDFBAD885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="1"/>
+            <c:val val="100"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabela!$A$8:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Allan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rafael</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicole</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rosiane</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roberto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Simone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$E$8:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-98B7-4E49-8537-187BDFBAD885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="754101496"/>
+        <c:axId val="754098616"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vermelho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$B$8:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-98B7-4E49-8537-187BDFBAD885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amarelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-98B7-4E49-8537-187BDFBAD885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$D$8:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-98B7-4E49-8537-187BDFBAD885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabela!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Verde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="picture"/>
+            <c:spPr>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabela!$E$8:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-98B7-4E49-8537-187BDFBAD885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="754101496"/>
+        <c:axId val="754098616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="754101496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754098616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="754098616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754101496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2149,16 +3862,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>62592</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>51708</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2178,6 +3891,342 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78A13F2-D5E2-44F2-B443-307C86F8A5B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Smiley 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4430A0-E781-670D-8205-533CB1887190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="5807529"/>
+          <a:ext cx="680357" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Coração 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8602AA5A-0811-F88E-96F2-1EDD5704D6D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013857" y="5807528"/>
+          <a:ext cx="718457" cy="734786"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1001486</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Seta: da Esquerda para a Direita 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E85F00-1E88-8412-0BF9-C14480E9F77F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="6858000"/>
+          <a:ext cx="974272" cy="468086"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Seta: para Baixo 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709AAEDF-8DF6-C959-8A6D-465CD263C242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1262743" y="5829301"/>
+          <a:ext cx="506186" cy="713014"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7CBA42-28D4-4051-B2BE-F7C8FB707159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2485,8 +4534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A66566E-0DFA-43AF-9213-21B43B7CD768}">
   <dimension ref="A3:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2543,15 +4592,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A8,Aluno!B:C,2,0)/Aluno!$G$2&gt;0,VLOOKUP($A8,Aluno!B:C,2,0)/Aluno!$G$2&lt;=B$6),VLOOKUP($A8,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="C8" s="8">
+        <f>IF(AND(VLOOKUP($A8,Aluno!B:C,2,0)/Aluno!$G$2&gt;B$6,VLOOKUP($A8,Aluno!B:C,2,0)/Aluno!$G$2&lt;=C$6),VLOOKUP($A8,Aluno!B:C,2,0),NA())</f>
         <v>3000</v>
       </c>
       <c r="D8" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A8,Aluno!B:C,2,0)/Aluno!$G$2&gt;C$6,VLOOKUP($A8,Aluno!B:C,2,0)/Aluno!$G$2&lt;=D$6),VLOOKUP($A8,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E8" s="8" t="e">
+        <f>IF(VLOOKUP($A8,Aluno!B:C,2,0)/Aluno!$G$2&gt;D$6,VLOOKUP($A8,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2560,15 +4613,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="8">
+        <f>IF(AND(VLOOKUP($A9,Aluno!B:C,2,0)/Aluno!$G$2&gt;0,VLOOKUP($A9,Aluno!B:C,2,0)/Aluno!$G$2&lt;=B$6),VLOOKUP($A9,Aluno!B:C,2,0),NA())</f>
         <v>2000</v>
       </c>
       <c r="C9" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A9,Aluno!B:C,2,0)/Aluno!$G$2&gt;B$6,VLOOKUP($A9,Aluno!B:C,2,0)/Aluno!$G$2&lt;=C$6),VLOOKUP($A9,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D9" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A9,Aluno!B:C,2,0)/Aluno!$G$2&gt;C$6,VLOOKUP($A9,Aluno!B:C,2,0)/Aluno!$G$2&lt;=D$6),VLOOKUP($A9,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E9" s="8" t="e">
+        <f>IF(VLOOKUP($A9,Aluno!B:C,2,0)/Aluno!$G$2&gt;D$6,VLOOKUP($A9,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2577,15 +4634,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A10,Aluno!B:C,2,0)/Aluno!$G$2&gt;0,VLOOKUP($A10,Aluno!B:C,2,0)/Aluno!$G$2&lt;=B$6),VLOOKUP($A10,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="C10" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A10,Aluno!B:C,2,0)/Aluno!$G$2&gt;B$6,VLOOKUP($A10,Aluno!B:C,2,0)/Aluno!$G$2&lt;=C$6),VLOOKUP($A10,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D10" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A10,Aluno!B:C,2,0)/Aluno!$G$2&gt;C$6,VLOOKUP($A10,Aluno!B:C,2,0)/Aluno!$G$2&lt;=D$6),VLOOKUP($A10,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E10" s="8">
+        <f>IF(VLOOKUP($A10,Aluno!B:C,2,0)/Aluno!$G$2&gt;D$6,VLOOKUP($A10,Aluno!B:C,2,0),NA())</f>
         <v>9000</v>
       </c>
     </row>
@@ -2594,15 +4655,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A11,Aluno!B:C,2,0)/Aluno!$G$2&gt;0,VLOOKUP($A11,Aluno!B:C,2,0)/Aluno!$G$2&lt;=B$6),VLOOKUP($A11,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="C11" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A11,Aluno!B:C,2,0)/Aluno!$G$2&gt;B$6,VLOOKUP($A11,Aluno!B:C,2,0)/Aluno!$G$2&lt;=C$6),VLOOKUP($A11,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D11" s="8">
+        <f>IF(AND(VLOOKUP($A11,Aluno!B:C,2,0)/Aluno!$G$2&gt;C$6,VLOOKUP($A11,Aluno!B:C,2,0)/Aluno!$G$2&lt;=D$6),VLOOKUP($A11,Aluno!B:C,2,0),NA())</f>
         <v>5500</v>
       </c>
       <c r="E11" s="8" t="e">
+        <f>IF(VLOOKUP($A11,Aluno!B:C,2,0)/Aluno!$G$2&gt;D$6,VLOOKUP($A11,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2611,15 +4676,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A12,Aluno!B:C,2,0)/Aluno!$G$2&gt;0,VLOOKUP($A12,Aluno!B:C,2,0)/Aluno!$G$2&lt;=B$6),VLOOKUP($A12,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="C12" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A12,Aluno!B:C,2,0)/Aluno!$G$2&gt;B$6,VLOOKUP($A12,Aluno!B:C,2,0)/Aluno!$G$2&lt;=C$6),VLOOKUP($A12,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D12" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A12,Aluno!B:C,2,0)/Aluno!$G$2&gt;C$6,VLOOKUP($A12,Aluno!B:C,2,0)/Aluno!$G$2&lt;=D$6),VLOOKUP($A12,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E12" s="8">
+        <f>IF(VLOOKUP($A12,Aluno!B:C,2,0)/Aluno!$G$2&gt;D$6,VLOOKUP($A12,Aluno!B:C,2,0),NA())</f>
         <v>8000</v>
       </c>
     </row>
@@ -2628,15 +4697,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A13,Aluno!B:C,2,0)/Aluno!$G$2&gt;0,VLOOKUP($A13,Aluno!B:C,2,0)/Aluno!$G$2&lt;=B$6),VLOOKUP($A13,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="C13" s="8">
+        <f>IF(AND(VLOOKUP($A13,Aluno!B:C,2,0)/Aluno!$G$2&gt;B$6,VLOOKUP($A13,Aluno!B:C,2,0)/Aluno!$G$2&lt;=C$6),VLOOKUP($A13,Aluno!B:C,2,0),NA())</f>
         <v>3000</v>
       </c>
       <c r="D13" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A13,Aluno!B:C,2,0)/Aluno!$G$2&gt;C$6,VLOOKUP($A13,Aluno!B:C,2,0)/Aluno!$G$2&lt;=D$6),VLOOKUP($A13,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E13" s="8" t="e">
+        <f>IF(VLOOKUP($A13,Aluno!B:C,2,0)/Aluno!$G$2&gt;D$6,VLOOKUP($A13,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2645,15 +4718,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A14,Aluno!B:C,2,0)/Aluno!$G$2&gt;0,VLOOKUP($A14,Aluno!B:C,2,0)/Aluno!$G$2&lt;=B$6),VLOOKUP($A14,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="C14" s="8" t="e">
+        <f>IF(AND(VLOOKUP($A14,Aluno!B:C,2,0)/Aluno!$G$2&gt;B$6,VLOOKUP($A14,Aluno!B:C,2,0)/Aluno!$G$2&lt;=C$6),VLOOKUP($A14,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D14" s="8">
-        <v>6000</v>
+        <f>IF(AND(VLOOKUP($A14,Aluno!B:C,2,0)/Aluno!$G$2&gt;C$6,VLOOKUP($A14,Aluno!B:C,2,0)/Aluno!$G$2&lt;=D$6),VLOOKUP($A14,Aluno!B:C,2,0),NA())</f>
+        <v>7500</v>
       </c>
       <c r="E14" s="8" t="e">
+        <f>IF(VLOOKUP($A14,Aluno!B:C,2,0)/Aluno!$G$2&gt;D$6,VLOOKUP($A14,Aluno!B:C,2,0),NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2787,8 +4864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9135E9EA-311B-4764-9E01-15000B4EC82F}">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2893,11 +4970,12 @@
         <v>11</v>
       </c>
       <c r="C11" s="12">
-        <v>6000</v>
+        <v>7500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>